--- a/src/test/resources/dataProvider/WriteRWC.xlsx
+++ b/src/test/resources/dataProvider/WriteRWC.xlsx
@@ -2571,7 +2571,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -2664,6 +2664,7 @@
       <c r="AA1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AB1"/>
     </row>
     <row r="3" spans="1:27" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -2747,6 +2748,7 @@
       <c r="AA3" t="s">
         <v>46</v>
       </c>
+      <c r="AB3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
